--- a/BP_pre/hltestdata.xlsx
+++ b/BP_pre/hltestdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习君\SRTP\python BP\qtexe\BP_pre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习君\SRTP\BP_pro\BP_pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41E93F-C1F4-45A0-9BA4-190998A1E8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2F314-80E6-4AA5-B5A5-57E4C31DCF21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6144" yWindow="2004" windowWidth="13920" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>X12</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -484,11 +492,14 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -540,7 +551,13 @@
         <v>6.9572785628454001</v>
       </c>
       <c r="M2">
+        <v>37.831875853824997</v>
+      </c>
+      <c r="N2">
         <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1.7080160762904699</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -581,7 +598,13 @@
         <v>7.3500927653943702</v>
       </c>
       <c r="M3">
+        <v>37.963109835022401</v>
+      </c>
+      <c r="N3">
         <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1.72085394423049</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -622,7 +645,13 @@
         <v>6.8811271633614899</v>
       </c>
       <c r="M4">
+        <v>38.0177866255423</v>
+      </c>
+      <c r="N4">
         <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1.7029004533565999</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -663,7 +692,13 @@
         <v>7.3772271802217499</v>
       </c>
       <c r="M5">
+        <v>36.915851097230302</v>
+      </c>
+      <c r="N5">
         <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1.7116408034514701</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -704,7 +739,13 @@
         <v>7.3014808510308402</v>
       </c>
       <c r="M6">
+        <v>38.711115926376301</v>
+      </c>
+      <c r="N6">
         <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1.72619450376183</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -745,7 +786,13 @@
         <v>7.1734897751894504</v>
       </c>
       <c r="M7">
+        <v>37.428071648340797</v>
+      </c>
+      <c r="N7">
         <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1.7103068808391599</v>
       </c>
       <c r="AA7" s="3"/>
     </row>
@@ -787,7 +834,13 @@
         <v>7.0163854393966201</v>
       </c>
       <c r="M8">
+        <v>37.7625944790245</v>
+      </c>
+      <c r="N8">
         <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1.7043266897188201</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -828,7 +881,13 @@
         <v>7.1562126625543101</v>
       </c>
       <c r="M9">
+        <v>37.536756856616599</v>
+      </c>
+      <c r="N9">
         <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1.70687491454963</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -869,7 +928,13 @@
         <v>10.566343615859701</v>
       </c>
       <c r="M10">
+        <v>40.046145602438799</v>
+      </c>
+      <c r="N10">
         <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1.9689018326490599</v>
       </c>
       <c r="AA10" s="3"/>
     </row>
@@ -911,7 +976,13 @@
         <v>10.5339083233838</v>
       </c>
       <c r="M11">
+        <v>39.318855424801598</v>
+      </c>
+      <c r="N11">
         <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1.9740581352170801</v>
       </c>
       <c r="AA11" s="3"/>
     </row>
@@ -953,7 +1024,13 @@
         <v>8.1830603769011407</v>
       </c>
       <c r="M12">
+        <v>35.625447286985803</v>
+      </c>
+      <c r="N12">
         <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1.2280093237165599</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -994,7 +1071,13 @@
         <v>8.4022565647121095</v>
       </c>
       <c r="M13">
+        <v>34.893555076746097</v>
+      </c>
+      <c r="N13">
         <v>2</v>
+      </c>
+      <c r="P13">
+        <v>1.22509008409597</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1035,7 +1118,13 @@
         <v>8.2490437918236292</v>
       </c>
       <c r="M14">
+        <v>34.6109043017711</v>
+      </c>
+      <c r="N14">
         <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1.2212209447292399</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1076,7 +1165,13 @@
         <v>8.5309315379141708</v>
       </c>
       <c r="M15">
+        <v>35.262768902134297</v>
+      </c>
+      <c r="N15">
         <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1.24139065243953</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -1117,7 +1212,13 @@
         <v>8.4158878325826603</v>
       </c>
       <c r="M16">
+        <v>35.117202207854596</v>
+      </c>
+      <c r="N16">
         <v>2</v>
+      </c>
+      <c r="P16">
+        <v>1.2359443372596199</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -1158,7 +1259,13 @@
         <v>11.0795742287875</v>
       </c>
       <c r="M17">
+        <v>38.351499012588299</v>
+      </c>
+      <c r="N17">
         <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1.5745838567583299</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1199,7 +1306,13 @@
         <v>12.7209773510732</v>
       </c>
       <c r="M18">
+        <v>41.338226477278397</v>
+      </c>
+      <c r="N18">
         <v>2</v>
+      </c>
+      <c r="P18">
+        <v>1.6600425536741901</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -1240,7 +1353,13 @@
         <v>11.7624155049206</v>
       </c>
       <c r="M19">
+        <v>40.711123290483897</v>
+      </c>
+      <c r="N19">
         <v>2</v>
+      </c>
+      <c r="P19">
+        <v>1.60580507879777</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -1281,7 +1400,13 @@
         <v>11.7043991875451</v>
       </c>
       <c r="M20">
+        <v>39.257702189404696</v>
+      </c>
+      <c r="N20">
         <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1.6402843053976599</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -1322,7 +1447,13 @@
         <v>12.1821110750864</v>
       </c>
       <c r="M21">
+        <v>40.154140597201703</v>
+      </c>
+      <c r="N21">
         <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1.6236344760155099</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -1363,7 +1494,13 @@
         <v>3.5690842874197402</v>
       </c>
       <c r="M22">
+        <v>24.5115045704895</v>
+      </c>
+      <c r="N22">
         <v>3</v>
+      </c>
+      <c r="P22">
+        <v>0.68458588273271803</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -1404,7 +1541,13 @@
         <v>3.4646324222979699</v>
       </c>
       <c r="M23">
+        <v>23.736007686614499</v>
+      </c>
+      <c r="N23">
         <v>3</v>
+      </c>
+      <c r="P23">
+        <v>0.66087053443963095</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -1445,7 +1588,13 @@
         <v>3.52611323862918</v>
       </c>
       <c r="M24">
+        <v>24.584366909020599</v>
+      </c>
+      <c r="N24">
         <v>3</v>
+      </c>
+      <c r="P24">
+        <v>0.67965971980671802</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -1486,7 +1635,13 @@
         <v>3.5998773588757</v>
       </c>
       <c r="M25">
+        <v>24.511655293026699</v>
+      </c>
+      <c r="N25">
         <v>3</v>
+      </c>
+      <c r="P25">
+        <v>0.68522614420973604</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -1527,7 +1682,13 @@
         <v>3.4039947799349202</v>
       </c>
       <c r="M26">
+        <v>23.520596026810601</v>
+      </c>
+      <c r="N26">
         <v>3</v>
+      </c>
+      <c r="P26">
+        <v>0.65732555865571696</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -1568,7 +1729,13 @@
         <v>3.4127407700844601</v>
       </c>
       <c r="M27">
+        <v>24.203981411128801</v>
+      </c>
+      <c r="N27">
         <v>3</v>
+      </c>
+      <c r="P27">
+        <v>0.67124015637121504</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -1608,8 +1775,14 @@
       <c r="L28" s="4">
         <v>6.9611944349909498</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
+        <v>28.869731548205198</v>
+      </c>
+      <c r="N28">
         <v>3</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.97280701410277703</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -1651,8 +1824,14 @@
       <c r="L29" s="4">
         <v>7.1996182089213798</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
+        <v>29.996512606128601</v>
+      </c>
+      <c r="N29">
         <v>3</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.98434856516788605</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -1694,8 +1873,14 @@
       <c r="L30" s="4">
         <v>7.8705542502956698</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
+        <v>30.058135690067498</v>
+      </c>
+      <c r="N30">
         <v>3</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1.02763235215328</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -1737,8 +1922,14 @@
       <c r="L31" s="4">
         <v>7.1186738577408697</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
+        <v>29.289616087415599</v>
+      </c>
+      <c r="N31">
         <v>3</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.97169432471056105</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -1781,7 +1972,13 @@
         <v>8.4600626760292492</v>
       </c>
       <c r="M32">
+        <v>40.550523814536902</v>
+      </c>
+      <c r="N32">
         <v>4</v>
+      </c>
+      <c r="P32">
+        <v>1.2450962014287901</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -1822,7 +2019,13 @@
         <v>8.4251147922121099</v>
       </c>
       <c r="M33">
+        <v>41.234120413763002</v>
+      </c>
+      <c r="N33">
         <v>4</v>
+      </c>
+      <c r="P33">
+        <v>1.2566024042483701</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -1863,7 +2066,13 @@
         <v>8.2926057961783108</v>
       </c>
       <c r="M34">
+        <v>41.301126005756402</v>
+      </c>
+      <c r="N34">
         <v>4</v>
+      </c>
+      <c r="P34">
+        <v>1.2515487113425501</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -1904,7 +2113,13 @@
         <v>8.22254217404444</v>
       </c>
       <c r="M35">
+        <v>41.940444728502897</v>
+      </c>
+      <c r="N35">
         <v>4</v>
+      </c>
+      <c r="P35">
+        <v>1.2338884034561</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -1945,7 +2160,13 @@
         <v>8.3137595039899299</v>
       </c>
       <c r="M36">
+        <v>41.869312628610501</v>
+      </c>
+      <c r="N36">
         <v>4</v>
+      </c>
+      <c r="P36">
+        <v>1.2472373137556001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -1986,7 +2207,13 @@
         <v>8.3970636876695792</v>
       </c>
       <c r="M37">
+        <v>41.992980200500099</v>
+      </c>
+      <c r="N37">
         <v>4</v>
+      </c>
+      <c r="P37">
+        <v>1.24433730598695</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -2027,7 +2254,13 @@
         <v>8.5029261687172095</v>
       </c>
       <c r="M38">
+        <v>42.258489977561503</v>
+      </c>
+      <c r="N38">
         <v>4</v>
+      </c>
+      <c r="P38">
+        <v>1.23355898344474</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -2068,7 +2301,13 @@
         <v>8.3983311354444208</v>
       </c>
       <c r="M39">
+        <v>42.813305420177997</v>
+      </c>
+      <c r="N39">
         <v>4</v>
+      </c>
+      <c r="P39">
+        <v>1.2416851793044901</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -2109,7 +2348,13 @@
         <v>8.5333573436375794</v>
       </c>
       <c r="M40">
+        <v>41.544453798338502</v>
+      </c>
+      <c r="N40">
         <v>4</v>
+      </c>
+      <c r="P40">
+        <v>1.2379637244369299</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -2150,7 +2395,13 @@
         <v>8.3211603959868903</v>
       </c>
       <c r="M41">
+        <v>42.8403344387971</v>
+      </c>
+      <c r="N41">
         <v>4</v>
+      </c>
+      <c r="P41">
+        <v>1.24150966735263</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -2191,7 +2442,13 @@
         <v>13.834552729981301</v>
       </c>
       <c r="M42">
+        <v>66.863814452162998</v>
+      </c>
+      <c r="N42">
         <v>5</v>
+      </c>
+      <c r="P42">
+        <v>1.90845121066836</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -2232,7 +2489,13 @@
         <v>13.9059362622758</v>
       </c>
       <c r="M43">
+        <v>67.886287571154398</v>
+      </c>
+      <c r="N43">
         <v>5</v>
+      </c>
+      <c r="P43">
+        <v>1.9677855847650001</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -2273,7 +2536,13 @@
         <v>14.270326079168999</v>
       </c>
       <c r="M44">
+        <v>67.2946436502518</v>
+      </c>
+      <c r="N44">
         <v>5</v>
+      </c>
+      <c r="P44">
+        <v>1.9298690557913301</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -2314,7 +2583,13 @@
         <v>14.1731281449399</v>
       </c>
       <c r="M45">
+        <v>66.2252782472289</v>
+      </c>
+      <c r="N45">
         <v>5</v>
+      </c>
+      <c r="P45">
+        <v>1.94401820156788</v>
       </c>
       <c r="AA45" s="5"/>
     </row>
@@ -2356,7 +2631,13 @@
         <v>15.2033498387962</v>
       </c>
       <c r="M46">
+        <v>68.548323060192999</v>
+      </c>
+      <c r="N46">
         <v>5</v>
+      </c>
+      <c r="P46">
+        <v>2.0492478343079799</v>
       </c>
       <c r="AA46" s="5"/>
     </row>
@@ -2398,7 +2679,13 @@
         <v>14.296291173247401</v>
       </c>
       <c r="M47">
+        <v>68.023845432328002</v>
+      </c>
+      <c r="N47">
         <v>5</v>
+      </c>
+      <c r="P47">
+        <v>1.98403669346784</v>
       </c>
       <c r="AA47" s="5"/>
     </row>
@@ -2440,7 +2727,13 @@
         <v>13.4380638675051</v>
       </c>
       <c r="M48">
+        <v>67.974409473859197</v>
+      </c>
+      <c r="N48">
         <v>5</v>
+      </c>
+      <c r="P48">
+        <v>1.8658501071334399</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -2481,7 +2774,13 @@
         <v>12.4678436009252</v>
       </c>
       <c r="M49">
+        <v>67.987985522801793</v>
+      </c>
+      <c r="N49">
         <v>5</v>
+      </c>
+      <c r="P49">
+        <v>1.8356590787487399</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -2522,7 +2821,13 @@
         <v>12.8883781072816</v>
       </c>
       <c r="M50">
+        <v>66.9495592215453</v>
+      </c>
+      <c r="N50">
         <v>5</v>
+      </c>
+      <c r="P50">
+        <v>1.8541609995731001</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -2563,7 +2868,13 @@
         <v>12.969239935131901</v>
       </c>
       <c r="M51">
+        <v>67.9238948691209</v>
+      </c>
+      <c r="N51">
         <v>5</v>
+      </c>
+      <c r="P51">
+        <v>1.8656971804934901</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -2604,7 +2915,13 @@
         <v>6.4008505249154304</v>
       </c>
       <c r="M52">
+        <v>29.7632208698829</v>
+      </c>
+      <c r="N52">
         <v>6</v>
+      </c>
+      <c r="P52">
+        <v>0.89441458868461798</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -2645,7 +2962,13 @@
         <v>6.6913857922645299</v>
       </c>
       <c r="M53">
+        <v>29.5944518292883</v>
+      </c>
+      <c r="N53">
         <v>6</v>
+      </c>
+      <c r="P53">
+        <v>0.91831492103034096</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -2686,7 +3009,13 @@
         <v>6.57358191131895</v>
       </c>
       <c r="M54">
+        <v>30.1556233783372</v>
+      </c>
+      <c r="N54">
         <v>6</v>
+      </c>
+      <c r="P54">
+        <v>0.885394011525793</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -2727,7 +3056,13 @@
         <v>6.5993015598801001</v>
       </c>
       <c r="M55">
+        <v>29.8001008238335</v>
+      </c>
+      <c r="N55">
         <v>6</v>
+      </c>
+      <c r="P55">
+        <v>0.90264797195486801</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -2768,7 +3103,13 @@
         <v>6.6327166769541899</v>
       </c>
       <c r="M56">
+        <v>30.482665423673598</v>
+      </c>
+      <c r="N56">
         <v>6</v>
+      </c>
+      <c r="P56">
+        <v>0.88695600306714195</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -2809,7 +3150,13 @@
         <v>6.7504738463751197</v>
       </c>
       <c r="M57">
+        <v>30.9599558671644</v>
+      </c>
+      <c r="N57">
         <v>6</v>
+      </c>
+      <c r="P57">
+        <v>0.90085377034972003</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -2850,7 +3197,13 @@
         <v>6.50320072722376</v>
       </c>
       <c r="M58">
+        <v>28.7608346467015</v>
+      </c>
+      <c r="N58">
         <v>6</v>
+      </c>
+      <c r="P58">
+        <v>0.86775566229941603</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -2891,7 +3244,13 @@
         <v>6.4486860043176604</v>
       </c>
       <c r="M59">
+        <v>33.091381990603203</v>
+      </c>
+      <c r="N59">
         <v>6</v>
+      </c>
+      <c r="P59">
+        <v>1.0274217402335999</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
@@ -2932,7 +3291,13 @@
         <v>6.5469399362556198</v>
       </c>
       <c r="M60">
+        <v>33.635677427688201</v>
+      </c>
+      <c r="N60">
         <v>6</v>
+      </c>
+      <c r="P60">
+        <v>1.0385247551149399</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -2973,7 +3338,13 @@
         <v>6.9233414646340998</v>
       </c>
       <c r="M61">
+        <v>34.747265208324599</v>
+      </c>
+      <c r="N61">
         <v>6</v>
+      </c>
+      <c r="P61">
+        <v>1.05028004638162</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -2987,7 +3358,11 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="P62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
@@ -3002,7 +3377,11 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="P63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
